--- a/testdata/xlsx/test_case.xlsx
+++ b/testdata/xlsx/test_case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_test_gate_api\testdata\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E54BCC-1412-4A4E-845E-50E6CFD30454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CBC368-A299-45BC-ACC8-B010217D7D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="33210" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>title</t>
   </si>
@@ -28,51 +28,85 @@
     <t>url</t>
   </si>
   <si>
-    <t>header</t>
-  </si>
-  <si>
     <t>method</t>
   </si>
   <si>
     <t>body</t>
   </si>
   <si>
+    <t>return_json</t>
+  </si>
+  <si>
     <t>result</t>
   </si>
   <si>
-    <t>接口名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口地址</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方式例如：POST、Get</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求正文</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>return_json</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回结果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求成功：Pass           请求失败：False</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>user</t>
+  </si>
+  <si>
+    <t>查询市场深度</t>
+  </si>
+  <si>
+    <t>/spot/order_book?currency_pair=BTC_USDT</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{'current': 1669955322263, 'update': 1669955321592, 'asks': [['452607.2', '21639.593959793'], ['452608.2', '22222']], 'bids': [['452605.75', '2219.70293266'], ['407950', '0.001'], ['362532', '1.2322'], ['352257.7', '0.0004'], ['310683.1', '0.0185'], ['244938.3', '1.2322'], ['238088.8', '0.0004'], ['207448.4', '0.0185'], ['127344.6', '1.2322'], ['123919.9', '0.0004']]}</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>现货下单-买</t>
+  </si>
+  <si>
+    <t>/api/v4/spot/orders</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"text": "t-123456",
+    "currency_pair": "ETH_USDT",
+    "type": "limit",
+    "account": "spot",
+    "side": "buy",
+    "iceberg": "0",
+    "amount": "1",
+    "price": "5900",
+    "time_in_force": "gtc",
+    "auto_borrow": false}</t>
+  </si>
+  <si>
+    <t>{'id': '1678079287', 'text': 't-123456', 'create_time': '1669955323', 'update_time': '1669955323', 'create_time_ms': 1669955323373, 'update_time_ms': 1669955323373, 'status': 'open', 'currency_pair': 'ETH_USDT', 'type': 'limit', 'account': 'spot', 'side': 'buy', 'amount': '1', 'price': '5900', 'time_in_force': 'gtc', 'iceberg': '0', 'left': '1', 'fill_price': '0', 'filled_total': '0', 'fee': '0', 'fee_currency': 'ETH', 'point_fee': '0', 'gt_fee': '0', 'gt_maker_fee': '0', 'gt_taker_fee': '0', 'gt_discount': False, 'rebated_fee': '0', 'rebated_fee_currency': 'USDT'}</t>
+  </si>
+  <si>
+    <t>现货吃单-卖</t>
+  </si>
+  <si>
+    <t>{
+    "text": "t-123456",
+    "currency_pair": "ETH_USDT",
+    "type": "limit",
+    "account": "spot",
+    "side": "sell",
+    "iceberg": "0",
+    "amount": "1",
+    "price": "5900",
+    "time_in_force": "gtc",
+    "auto_borrow": false
+}</t>
+  </si>
+  <si>
+    <t>script1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +145,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -135,46 +178,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -447,71 +502,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="64.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="31.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.08984375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" customWidth="1"/>
-    <col min="7" max="7" width="21.54296875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="22.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.90625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="45.6328125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="43.54296875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -526,10 +613,11 @@
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://47.110.62.160:8201/api/v4/spot/order_book?currency_pair=BTC_USDT" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/testdata/xlsx/test_case.xlsx
+++ b/testdata/xlsx/test_case.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_test_gate_api\testdata\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CBC368-A299-45BC-ACC8-B010217D7D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="33210" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30240" windowHeight="13220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>title</t>
   </si>
@@ -52,7 +46,7 @@
     <t>get</t>
   </si>
   <si>
-    <t>{'current': 1669955322263, 'update': 1669955321592, 'asks': [['452607.2', '21639.593959793'], ['452608.2', '22222']], 'bids': [['452605.75', '2219.70293266'], ['407950', '0.001'], ['362532', '1.2322'], ['352257.7', '0.0004'], ['310683.1', '0.0185'], ['244938.3', '1.2322'], ['238088.8', '0.0004'], ['207448.4', '0.0185'], ['127344.6', '1.2322'], ['123919.9', '0.0004']]}</t>
+    <t>{'current': 1669959391236, 'update': 1669959389705, 'asks': [['452607.2', '21628.419369993'], ['452608.2', '22222']], 'bids': [['452605.75', '2219.70267379'], ['407950', '0.001'], ['362532', '1.2322'], ['352257.7', '0.0004'], ['310683.1', '0.0185'], ['244938.3', '1.2322'], ['238088.8', '0.0004'], ['207448.4', '0.0185'], ['127344.6', '1.2322'], ['123919.9', '0.0004']]}</t>
   </si>
   <si>
     <t>PASSED</t>
@@ -79,7 +73,7 @@
     "auto_borrow": false}</t>
   </si>
   <si>
-    <t>{'id': '1678079287', 'text': 't-123456', 'create_time': '1669955323', 'update_time': '1669955323', 'create_time_ms': 1669955323373, 'update_time_ms': 1669955323373, 'status': 'open', 'currency_pair': 'ETH_USDT', 'type': 'limit', 'account': 'spot', 'side': 'buy', 'amount': '1', 'price': '5900', 'time_in_force': 'gtc', 'iceberg': '0', 'left': '1', 'fill_price': '0', 'filled_total': '0', 'fee': '0', 'fee_currency': 'ETH', 'point_fee': '0', 'gt_fee': '0', 'gt_maker_fee': '0', 'gt_taker_fee': '0', 'gt_discount': False, 'rebated_fee': '0', 'rebated_fee_currency': 'USDT'}</t>
+    <t>{'id': '1678093147', 'text': 't-123456', 'create_time': '1669959391', 'update_time': '1669959391', 'create_time_ms': 1669959391317, 'update_time_ms': 1669959391317, 'status': 'open', 'currency_pair': 'ETH_USDT', 'type': 'limit', 'account': 'spot', 'side': 'buy', 'amount': '1', 'price': '5900', 'time_in_force': 'gtc', 'iceberg': '0', 'left': '1', 'fill_price': '0', 'filled_total': '0', 'fee': '0', 'fee_currency': 'ETH', 'point_fee': '0', 'gt_fee': '0', 'gt_maker_fee': '0', 'gt_taker_fee': '0', 'gt_discount': False, 'rebated_fee': '0', 'rebated_fee_currency': 'USDT'}</t>
   </si>
   <si>
     <t>现货吃单-卖</t>
@@ -99,14 +93,23 @@
 }</t>
   </si>
   <si>
+    <t>{'id': '1678093150', 'text': 't-123456', 'create_time': '1669959391', 'update_time': '1669959391', 'create_time_ms': 1669959391393, 'update_time_ms': 1669959391393, 'status': 'closed', 'currency_pair': 'ETH_USDT', 'type': 'limit', 'account': 'spot', 'side': 'sell', 'amount': '1', 'price': '5900', 'time_in_force': 'gtc', 'iceberg': '0', 'left': '0', 'fill_price': '108361.75', 'filled_total': '108361.75', 'avg_deal_price': '108361.75', 'fee': '216.7235', 'fee_currency': 'USDT', 'point_fee': '0', 'gt_fee': '0', 'gt_maker_fee': '0', 'gt_taker_fee': '0', 'gt_discount': False, 'rebated_fee': '0', 'rebated_fee_currency': 'ETH'}</t>
+  </si>
+  <si>
     <t>script1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,44 +121,155 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,12 +278,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39991454817346722"/>
+        <fgColor theme="3" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -177,68 +477,329 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -496,128 +1057,132 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81730769230769" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.90625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="45.6328125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="43.54296875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="22.6346153846154" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.1826923076923" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.8173076923077" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.9038461538462" style="1" customWidth="1"/>
+    <col min="5" max="5" width="75.7980769230769" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.5384615384615" style="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.81640625" style="1"/>
+    <col min="8" max="16384" width="8.81730769230769" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="21" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="55" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="84" customHeight="1" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="64" customHeight="1" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" ht="30" customHeight="1"/>
+    <row r="6" ht="30" customHeight="1"/>
+    <row r="7" ht="30" customHeight="1"/>
+    <row r="8" ht="30" customHeight="1"/>
+    <row r="9" ht="30" customHeight="1"/>
+    <row r="10" ht="30" customHeight="1"/>
+    <row r="11" ht="30" customHeight="1"/>
+    <row r="12" ht="30" customHeight="1"/>
+    <row r="13" ht="30" customHeight="1"/>
+    <row r="14" ht="30" customHeight="1"/>
+    <row r="15" ht="30" customHeight="1"/>
+    <row r="16" ht="30" customHeight="1"/>
+    <row r="17" ht="30" customHeight="1"/>
+    <row r="18" ht="30" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://47.110.62.160:8201/api/v4/spot/order_book?currency_pair=BTC_USDT" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="/spot/order_book?currency_pair=BTC_USDT"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testdata/xlsx/test_case.xlsx
+++ b/testdata/xlsx/test_case.xlsx
@@ -1,170 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_test_gate_api\testdata\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CBC368-A299-45BC-ACC8-B010217D7D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="33210" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1860" yWindow="1860" windowWidth="33210" windowHeight="14680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>return_json</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>查询市场深度</t>
-  </si>
-  <si>
-    <t>/spot/order_book?currency_pair=BTC_USDT</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>{'current': 1669955322263, 'update': 1669955321592, 'asks': [['452607.2', '21639.593959793'], ['452608.2', '22222']], 'bids': [['452605.75', '2219.70293266'], ['407950', '0.001'], ['362532', '1.2322'], ['352257.7', '0.0004'], ['310683.1', '0.0185'], ['244938.3', '1.2322'], ['238088.8', '0.0004'], ['207448.4', '0.0185'], ['127344.6', '1.2322'], ['123919.9', '0.0004']]}</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>现货下单-买</t>
-  </si>
-  <si>
-    <t>/api/v4/spot/orders</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>{"text": "t-123456",
-    "currency_pair": "ETH_USDT",
-    "type": "limit",
-    "account": "spot",
-    "side": "buy",
-    "iceberg": "0",
-    "amount": "1",
-    "price": "5900",
-    "time_in_force": "gtc",
-    "auto_borrow": false}</t>
-  </si>
-  <si>
-    <t>{'id': '1678079287', 'text': 't-123456', 'create_time': '1669955323', 'update_time': '1669955323', 'create_time_ms': 1669955323373, 'update_time_ms': 1669955323373, 'status': 'open', 'currency_pair': 'ETH_USDT', 'type': 'limit', 'account': 'spot', 'side': 'buy', 'amount': '1', 'price': '5900', 'time_in_force': 'gtc', 'iceberg': '0', 'left': '1', 'fill_price': '0', 'filled_total': '0', 'fee': '0', 'fee_currency': 'ETH', 'point_fee': '0', 'gt_fee': '0', 'gt_maker_fee': '0', 'gt_taker_fee': '0', 'gt_discount': False, 'rebated_fee': '0', 'rebated_fee_currency': 'USDT'}</t>
-  </si>
-  <si>
-    <t>现货吃单-卖</t>
-  </si>
-  <si>
-    <t>{
-    "text": "t-123456",
-    "currency_pair": "ETH_USDT",
-    "type": "limit",
-    "account": "spot",
-    "side": "sell",
-    "iceberg": "0",
-    "amount": "1",
-    "price": "5900",
-    "time_in_force": "gtc",
-    "auto_borrow": false
-}</t>
-  </si>
-  <si>
-    <t>script1</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="0"/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="0"/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="10"/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39991454817346722"/>
+        <fgColor theme="3" tint="0.3999145481734672"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,68 +89,128 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -501,122 +471,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.90625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="45.6328125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="43.54296875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.81640625" style="1"/>
+    <col width="22.6328125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="64.1796875" customWidth="1" style="1" min="2" max="2"/>
+    <col width="19.81640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="36.90625" customWidth="1" style="7" min="4" max="4"/>
+    <col width="45.6328125" customWidth="1" style="11" min="5" max="5"/>
+    <col width="43.54296875" customWidth="1" style="7" min="6" max="6"/>
+    <col width="17" customWidth="1" style="1" min="7" max="7"/>
+    <col width="8.81640625" customWidth="1" style="1" min="8" max="8"/>
+    <col width="8.81640625" customWidth="1" style="1" min="9" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
+    <row r="1" ht="21" customHeight="1" s="13">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>body</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>return_json</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
+    <row r="2" ht="30" customHeight="1" s="13">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>查询市场深度</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>/spot/order_book?currency_pair=BTC_USDT</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="n"/>
+      <c r="E2" s="10" t="inlineStr">
+        <is>
+          <t>{'current': 1670168984381, 'update': 1670168983989, 'asks': [['452607.2', '18779.015448696'], ['452608.2', '22222']], 'bids': [['452605.75', '2204.97845733'], ['407950', '0.001'], ['362532', '1.2322'], ['352257.7', '0.0004'], ['310683.1', '0.0185'], ['244938.3', '1.2322'], ['238088.8', '0.0004'], ['207448.4', '0.0185'], ['127344.6', '1.2322'], ['123919.9', '0.0004']]}</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>11</v>
+    <row r="3" ht="30" customHeight="1" s="13">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>现货下单-买</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>/api/v4/spot/orders</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>{"text": "t-123456",
+    "currency_pair": "ETH_USDT",
+    "type": "limit",
+    "account": "spot",
+    "side": "buy",
+    "iceberg": "0",
+    "amount": "1",
+    "price": "5900",
+    "time_in_force": "gtc",
+    "auto_borrow": false}</t>
+        </is>
+      </c>
+      <c r="E3" s="11" t="inlineStr">
+        <is>
+          <t>{'id': '1679234381', 'text': 't-123456', 'create_time': '1670168985', 'update_time': '1670168985', 'create_time_ms': 1670168985332, 'update_time_ms': 1670168985332, 'status': 'closed', 'currency_pair': 'ETH_USDT', 'type': 'limit', 'account': 'spot', 'side': 'buy', 'amount': '1', 'price': '5900', 'time_in_force': 'gtc', 'iceberg': '0', 'left': '0', 'fill_price': '2223', 'filled_total': '2223', 'avg_deal_price': '2223', 'fee': '0.002', 'fee_currency': 'ETH', 'point_fee': '0', 'gt_fee': '0', 'gt_maker_fee': '0', 'gt_taker_fee': '0', 'gt_discount': False, 'rebated_fee': '0', 'rebated_fee_currency': 'USDT'}</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
+    <row r="4" ht="30" customHeight="1" s="13">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>现货吃单-卖</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>/api/v4/spot/orders</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>{
+    "text": "t-123456",
+    "currency_pair": "ETH_USDT",
+    "type": "limit",
+    "account": "spot",
+    "side": "sell",
+    "iceberg": "0",
+    "amount": "1",
+    "price": "5900",
+    "time_in_force": "gtc",
+    "auto_borrow": false
+}</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>script1</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" ht="30" customHeight="1" s="13"/>
+    <row r="6" ht="30" customHeight="1" s="13"/>
+    <row r="7" ht="30" customHeight="1" s="13"/>
+    <row r="8" ht="30" customHeight="1" s="13"/>
+    <row r="9" ht="30" customHeight="1" s="13"/>
+    <row r="10" ht="30" customHeight="1" s="13"/>
+    <row r="11" ht="30" customHeight="1" s="13"/>
+    <row r="12" ht="30" customHeight="1" s="13"/>
+    <row r="13" ht="30" customHeight="1" s="13"/>
+    <row r="14" ht="30" customHeight="1" s="13"/>
+    <row r="15" ht="30" customHeight="1" s="13"/>
+    <row r="16" ht="30" customHeight="1" s="13"/>
+    <row r="17" ht="30" customHeight="1" s="13"/>
+    <row r="18" ht="30" customHeight="1" s="13"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://47.110.62.160:8201/api/v4/spot/order_book?currency_pair=BTC_USDT" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" display="http://47.110.62.160:8201/api/v4/spot/order_book?currency_pair=BTC_USDT" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
